--- a/dados_tratados.xlsx
+++ b/dados_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,32 +451,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>localizacao</t>
+          <t>valor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>valor</t>
+          <t>hospedes</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hospedes</t>
+          <t>quartos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>quartos</t>
+          <t>camas</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>camas</t>
+          <t>banheiros</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>banheiros</t>
+          <t>cidade</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
         </is>
       </c>
     </row>
@@ -493,19 +498,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Doutor Pedrinho, Brasil</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doutor Pedrinho Santa Catarina Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>296</v>
       </c>
       <c r="E2" t="n">
-        <v>296</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -513,8 +516,15 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Doutor Pedrinho</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -530,19 +540,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Joinville, Brasil</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Joinville Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>380</v>
       </c>
       <c r="E3" t="n">
-        <v>380</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -550,8 +558,15 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Joinville</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -567,28 +582,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de hóspedes em Campina Grande do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Campina Grande do Sul Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>690</v>
       </c>
       <c r="E4" t="n">
-        <v>690</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Campina Grande do Sul</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -604,19 +624,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em São Bento do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>São Bento do Sul Santa Catarina Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>405</v>
       </c>
       <c r="E5" t="n">
-        <v>405</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -624,8 +642,15 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>São Bento do Sul</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -641,19 +666,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Quatro Barras, Brasil</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Quatro Barras Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>599</v>
       </c>
       <c r="E6" t="n">
-        <v>599</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -661,36 +684,41 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Quatro Barras</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/921029245112867864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133356_aptBLAc5Dp6mEiWg&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/790025011931710526?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-17&amp;check_out=2024-06-22&amp;source_impression_id=p3_1713133356_lg9aYhFubPLt2hdV&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Casa Bambu Spa com cachoeira privativa</t>
+          <t>Chalé Álamo experiência de luxo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Arapongas, Brasil</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Arapongas Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>490</v>
       </c>
       <c r="E7" t="n">
-        <v>434</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -698,110 +726,125 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Rio dos Cedros</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/790025011931710526?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-17&amp;check_out=2024-06-22&amp;source_impression_id=p3_1713133356_lg9aYhFubPLt2hdV&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/989923661855551391?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133356_snWE%2FszOOoD8%2BR%2Fk&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chalé Álamo experiência de luxo</t>
+          <t>Tranquilidade ao lado de Curitiba_Chalé Marmeleiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Rio dos Cedros, Brasil</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rio dos Cedros Santa Catarina Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>546</v>
       </c>
       <c r="E8" t="n">
-        <v>490</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Almirante Tamandaré</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/989923661855551391?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133356_snWE%2FszOOoD8%2BR%2Fk&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1010708793639120628?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133356_hC%2FnEyiTxEH6a77f&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tranquilidade ao lado de Curitiba_Chalé Marmeleiro</t>
+          <t>Cabana Moderna com vista privilegiada da represa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Almirante Tamandaré, Brasil</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Almirante Tamandaré Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>650</v>
       </c>
       <c r="E9" t="n">
-        <v>546</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Campina Grande do Sul</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1010708793639120628?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133356_hC%2FnEyiTxEH6a77f&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/44335458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-08&amp;check_out=2024-05-13&amp;source_impression_id=p3_1713133356_hWdHv%2B183B5w9uZN&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cabana Moderna com vista privilegiada da represa</t>
+          <t>Cabana Rústica Nó de Pinho a 30mim de Curitiba</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Campina Grande do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Campina Grande do Sul Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>628</v>
       </c>
       <c r="E10" t="n">
-        <v>650</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -809,110 +852,125 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Rio de Una</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/44335458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-08&amp;check_out=2024-05-13&amp;source_impression_id=p3_1713133356_hWdHv%2B183B5w9uZN&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/763266522563963556?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133356_hHyleGGwoJXXoPiT&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cabana Rústica Nó de Pinho a 30mim de Curitiba</t>
+          <t>aconchego do marumbi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Rio de Una, Brasil</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rio de Una Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>517</v>
       </c>
       <c r="E11" t="n">
-        <v>628</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/763266522563963556?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133356_hHyleGGwoJXXoPiT&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/896380265814020430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_Ts%2BQ%2BUkUvYl34jfB&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>aconchego do marumbi</t>
+          <t>Chale na Serra Hidro Lareira Vista sensacional</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>530</v>
       </c>
       <c r="E12" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>São Bento do Sul</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/896380265814020430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_Ts%2BQ%2BUkUvYl34jfB&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/970553718997103031?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_21SxIZHg87sWAADO&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chale na Serra Hidro Lareira Vista sensacional</t>
+          <t>Chalé privativo espaçoso hidro piscina e lareira</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em São Bento do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>São Bento do Sul Santa Catarina Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>533</v>
       </c>
       <c r="E13" t="n">
-        <v>530</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -920,184 +978,209 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Fazenda Rio Grande</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/970553718997103031?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_21SxIZHg87sWAADO&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/810121167313938313?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_oqnu4QUUgOFXGzEI&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chalé privativo espaçoso hidro piscina e lareira</t>
+          <t>Chalé Andorinha com hidro para casal</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Fazenda Rio Grande, Brasil</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Fazenda Rio Grande Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>340</v>
       </c>
       <c r="E14" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Campo Alegre</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/810121167313938313?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_oqnu4QUUgOFXGzEI&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/994077022830227160?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133360_MLbVt2ET8u8jerKz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chalé Andorinha com hidro para casal</t>
+          <t>Chalé du Monte</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Campo Alegre, Brasil</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Campo Alegre Santa Catarina Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>392</v>
       </c>
       <c r="E15" t="n">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Almirante Tamandaré</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/994077022830227160?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133360_MLbVt2ET8u8jerKz&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/633187960326501478?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133360_yUNIKKH3vBmTsnVS&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chalé du Monte</t>
+          <t>Chalé Costão da Serra</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Almirante Tamandaré, Brasil</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Almirante Tamandaré Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>452</v>
       </c>
       <c r="E16" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Guaratuba</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/633187960326501478?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133360_yUNIKKH3vBmTsnVS&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1043569036827493626?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133360_si40BiX8ZkBcgwl0&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chalé Costão da Serra</t>
+          <t>Cabana Cedro da Mata</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Guaratuba, Brasil</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Guaratuba Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>718</v>
       </c>
       <c r="E17" t="n">
-        <v>452</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1043569036827493626?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133360_si40BiX8ZkBcgwl0&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/977701018554701671?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-26&amp;check_out=2024-05-31&amp;source_impression_id=p3_1713133360_hqQRwUiu2k4Fc%2FnC&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cabana Cedro da Mata</t>
+          <t>Cabana  Refúgio da Rota</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em São José dos Pinhais, Brasil</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>São José dos Pinhais Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>620</v>
       </c>
       <c r="E18" t="n">
-        <v>718</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1105,295 +1188,335 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pomerode</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/977701018554701671?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-26&amp;check_out=2024-05-31&amp;source_impression_id=p3_1713133360_hqQRwUiu2k4Fc%2FnC&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/945485242137718553?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_5UNTBQT9oVTY6Wwb&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cabana  Refúgio da Rota</t>
+          <t>Cabana Aprazível</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Pomerode, Brasil</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Pomerode Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>360</v>
       </c>
       <c r="E19" t="n">
-        <v>620</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/945485242137718553?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_5UNTBQT9oVTY6Wwb&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/559124093510624070?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133360_eaoLsgr0dJF4RPsH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cabana Aprazível</t>
+          <t>Cabana da Mata Natureza Design e Conforto a menos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>580</v>
       </c>
       <c r="E20" t="n">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Balsa Nova</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/559124093510624070?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133360_eaoLsgr0dJF4RPsH&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/48169574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_I0ZOtx4AQDrwNhAt&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cabana da Mata Natureza Design e Conforto a menos</t>
+          <t>CHALÉ pé na areia em Itapoá SC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Balsa Nova, Brasil</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Balsa Nova Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>445</v>
       </c>
       <c r="E21" t="n">
-        <v>580</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Itapoá</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/48169574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_I0ZOtx4AQDrwNhAt&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/52401688?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_CBX42ZwvGs5OM0Es&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHALÉ pé na areia em Itapoá SC</t>
+          <t>Casa do Lago</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Itapoá, Brasil</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Itapoá Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>465</v>
       </c>
       <c r="E22" t="n">
-        <v>445</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Lucena</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/52401688?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_CBX42ZwvGs5OM0Es&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/651681677407389430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133364_%2FAxMzc%2B7WcFCcBIU&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Casa do Lago</t>
+          <t>Cobertura frente para o Mar  Praia com piscina</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Lucena, Brasil</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Lucena Santa Catarina Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>350</v>
       </c>
       <c r="E23" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pontal do Paraná</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/651681677407389430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133364_%2FAxMzc%2B7WcFCcBIU&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1077590859700584876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133364_%2Fgs8XR%2F%2FlvTzo5TW&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cobertura frente para o Mar  Praia com piscina</t>
+          <t>Cabana do Lago  Natureza Design e Conforto a men</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Pontal do Paraná, Brasil</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Pontal do Paraná Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>580</v>
       </c>
       <c r="E24" t="n">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Balsa Nova</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/50993020?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133364_DcAQCDXEXcbexR2%2F&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/523346182827720005?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_Fy1Q5EMf9bsOftVb&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Casa de Campo Container</t>
+          <t>Chácara Piscina e RIO no fundo a 60km de Curitiba</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Contêiner de transporte em Jandaia do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Jandaia do Sul Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>238</v>
       </c>
       <c r="E25" t="n">
-        <v>535</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1077590859700584876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133364_%2Fgs8XR%2F%2FlvTzo5TW&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/48403014?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_eFw0fCL97s%2FdifT1&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cabana do Lago  Natureza Design e Conforto a men</t>
+          <t>Chalé ao pé do Marumbi com rio ofurô e tucanos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Balsa Nova, Brasil</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Balsa Nova Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>445</v>
       </c>
       <c r="E26" t="n">
-        <v>580</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1401,1479 +1524,1679 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/523346182827720005?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_Fy1Q5EMf9bsOftVb&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_uoKa%2BaBUYXtwwXBU&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chácara Piscina e RIO no fundo a 60km de Curitiba</t>
+          <t>Cabana Sabores do Sítio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>310</v>
       </c>
       <c r="E27" t="n">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Campina Grande do Sul</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/48403014?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_eFw0fCL97s%2FdifT1&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_ShZvC84NWIiIYF9k&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chalé ao pé do Marumbi com rio ofurô e tucanos</t>
+          <t>Descanso com Vista Privilegiada Leopoldo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>180</v>
       </c>
       <c r="E28" t="n">
-        <v>445</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_uoKa%2BaBUYXtwwXBU&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1037809910742245779?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133364_atgN1QOy1O5aMETF&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cabana Sabores do Sítio</t>
+          <t>Estúdio completo  Região da Higienópolis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Campina Grande do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Campina Grande do Sul Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>120</v>
       </c>
       <c r="E29" t="n">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/746472180104259874?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133364_yCboLDWrh6kyDxH%2B&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/53558919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_n5h1XYxl%2FcU6eMCL&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chalé Amor Vale dOuro Pousada</t>
+          <t>Chalé aconchegante na natureza ao lado da capital</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quarto privativo em pousada em Quilombo, Brasil</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Quilombo Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>110</v>
       </c>
       <c r="E30" t="n">
-        <v>499</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Campo Magro</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_ShZvC84NWIiIYF9k&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/32414763?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_ztq178%2FHiMNK1hKP&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Descanso com Vista Privilegiada Leopoldo</t>
+          <t>Ecositio para você renovar sua energia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Antonina</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/787050674026213890?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133364_zizipA1M1N8eO77g&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/922648329770626479?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133367_thZHgd%2FfLgUo28yN&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Studio Art  Design Alto Padrão</t>
+          <t>Cabana Monte Oliva</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>179</v>
       </c>
       <c r="E32" t="n">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Benedito Novo</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1037809910742245779?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133364_atgN1QOy1O5aMETF&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_zmnGWlW9nR0z0x0y&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Estúdio completo  Região da Higienópolis</t>
+          <t>Descanso com Vista Privilegiada Leopoldo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Londrina Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>180</v>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/53558919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_n5h1XYxl%2FcU6eMCL&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/42536134?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133367_PDOFYsT3BTXNcxN4&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chalé aconchegante na natureza ao lado da capital</t>
+          <t>Chalé João de Barrocompleto prox Gleba Palhano</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de hóspedes em Campo Magro, Brasil</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Campo Magro Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>68</v>
       </c>
       <c r="E34" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/32414763?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_ztq178%2FHiMNK1hKP&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1132715618441526862?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_D68FXGqzO6xbjh%2FU&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ecositio para você renovar sua energia</t>
+          <t>Ap 204 c 2 Qts sacada garagem e AC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Antonina, Brasil</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Antonina Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>181</v>
       </c>
       <c r="E35" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/922648329770626479?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133367_thZHgd%2FfLgUo28yN&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_cYgM6wlFQKuLktbh&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cabana Monte Oliva</t>
+          <t>Cabana Sabores do Sítio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Benedito Novo, Brasil</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Benedito Novo Santa Catarina Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>310</v>
       </c>
       <c r="E36" t="n">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Campina Grande do Sul</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_zmnGWlW9nR0z0x0y&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1111536951031750653?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_dqbUdUbcbvwnYcMn&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Descanso com Vista Privilegiada Leopoldo</t>
+          <t>Seu refúgio urbano dos sonhos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Cascavel</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/42536134?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133367_PDOFYsT3BTXNcxN4&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/997864101866521776?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_hriYjg3CjGnE2pU1&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chalé João de Barrocompleto prox Gleba Palhano</t>
+          <t>Chalé Campo Alegre</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Londrina, Brasil</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Londrina Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>300</v>
       </c>
       <c r="E38" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Campo Alegre</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1132715618441526862?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_D68FXGqzO6xbjh%2FU&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/50385530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_sD4pYTJ7K16FFTqY&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ap 204 c 2 Qts sacada garagem e AC</t>
+          <t>Cabana linda no Canto da Saíra</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Itaqui de Cima</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_cYgM6wlFQKuLktbh&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/898482973431673491?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_CE2fmFP8GGdiYjSH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cabana Sabores do Sítio</t>
+          <t>Studio suspenso sobre o Rio Nhundiaquara</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Campina Grande do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Campina Grande do Sul Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>285</v>
       </c>
       <c r="E40" t="n">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1111536951031750653?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_dqbUdUbcbvwnYcMn&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/898571722744580060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_FKDnRMiAt4LRuyZJ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Seu refúgio urbano dos sonhos</t>
+          <t>Cabana Roots Jacùzzi Piscina Fogueira Bike</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Cascavel, Brasil</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Cascavel Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>432</v>
       </c>
       <c r="E41" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Blumenau</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/997864101866521776?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_hriYjg3CjGnE2pU1&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/4795458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133367_wHKSbvrELX57lBhU&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chalé Campo Alegre</t>
+          <t>Canto Sereno</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Campo Alegre, Brasil</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Campo Alegre Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>399</v>
       </c>
       <c r="E42" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Campo Largo</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/50385530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_sD4pYTJ7K16FFTqY&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/52141458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133371_jrOO028XkaftDXp2&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cabana linda no Canto da Saíra</t>
+          <t>Chácara c Piscina Perto de Curitiba Wifi  Sauna</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Itaqui de Cima, Brasil</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Itaqui de Cima Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1588</v>
       </c>
       <c r="E43" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/898482973431673491?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_CE2fmFP8GGdiYjSH&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/775258024486932180?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133371_aDxrtZ5BxXLs0kGb&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Studio suspenso sobre o Rio Nhundiaquara</t>
+          <t>Apartamento novo  5 mins do Parque do Ingá</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>179</v>
       </c>
       <c r="E44" t="n">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/898571722744580060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_FKDnRMiAt4LRuyZJ&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/862272865914039638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133371_sgJkABxamQpVsRhw&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cabana Roots Jacùzzi Piscina Fogueira Bike</t>
+          <t>Refúgio Natural em AntoninaPR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Blumenau, Brasil</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Blumenau Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>739</v>
       </c>
       <c r="E45" t="n">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
       </c>
-      <c r="I45" t="n">
-        <v>2</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Antonina</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/4795458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133367_wHKSbvrELX57lBhU&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/39320210?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_tyWynLdbBc8%2FXFi2&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Canto Sereno</t>
+          <t>CHALÉ 1 Porto Villa da MataChalés para locação</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Campo Largo, Brasil</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Campo Largo Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>320</v>
       </c>
       <c r="E46" t="n">
-        <v>399</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Ribeirão Claro</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/52141458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133371_jrOO028XkaftDXp2&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/992251228778186937?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_gDEvzA%2BY1YnaqMAO&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chácara c Piscina Perto de Curitiba Wifi  Sauna</t>
+          <t>Cabanas Recanto Vale do Tibagi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em São José dos Pinhais, Brasil</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>São José dos Pinhais Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>557</v>
       </c>
       <c r="E47" t="n">
-        <v>1588</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>18</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>São Jerônimo da Serra</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/775258024486932180?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133371_aDxrtZ5BxXLs0kGb&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/815302729083135727?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_J%2BuGZFoWUj%2FKYIFy&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apartamento novo  5 mins do Parque do Ingá</t>
+          <t>Cabana Goiaba  Chácara do Porto</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>599</v>
       </c>
       <c r="E48" t="n">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
-      <c r="I48" t="n">
-        <v>2</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Morretes</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/862272865914039638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133371_sgJkABxamQpVsRhw&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1116041450244111296?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_E4GZ%2Fdy7yobp%2Blb4&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Refúgio Natural em AntoninaPR</t>
+          <t>Ap c 2 Qts sacada garagem e AC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Casa na terra em Antonina, Brasil</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Antonina Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>190</v>
       </c>
       <c r="E49" t="n">
-        <v>739</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/39320210?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_tyWynLdbBc8%2FXFi2&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133371_y2ulb2N60AdST7ke&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CHALÉ 1 Porto Villa da MataChalés para locação</t>
+          <t>Flat aconchegante bem localizado com garagem</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de hóspedes em Ribeirão Claro, Brasil</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Ribeirão Claro Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>135</v>
       </c>
       <c r="E50" t="n">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/992251228778186937?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_gDEvzA%2BY1YnaqMAO&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/761099166890775777?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_OE%2BE49S3e0PSbvYA&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cabanas Recanto Vale do Tibagi</t>
+          <t>Casa de Campo com Piscina em Piraquara</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em São Jerônimo da Serra, Brasil</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>São Jerônimo da Serra Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1320</v>
       </c>
       <c r="E51" t="n">
-        <v>557</v>
+        <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Piraquara</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/815302729083135727?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_J%2BuGZFoWUj%2FKYIFy&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/49793555?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133371_Cw%2FFYWiI%2Bh4SXsV7&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cabana Goiaba  Chácara do Porto</t>
+          <t>CHALÉ ALTO PADRÃO  São Luiz do Purunã 2 quartos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Morretes, Brasil</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Morretes Paraná Brasil</t>
-        </is>
+          <t>fazenda</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>817</v>
       </c>
       <c r="E52" t="n">
-        <v>599</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Balsa Nova</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1116041450244111296?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_E4GZ%2Fdy7yobp%2Blb4&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1082643511933100804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133371_CZt1zGyoYusXBwDW&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ap c 2 Qts sacada garagem e AC</t>
+          <t>Casa em Maringá  com piscina</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
         <v>4</v>
       </c>
-      <c r="G53" t="n">
-        <v>2</v>
-      </c>
       <c r="H53" t="n">
-        <v>3</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133371_y2ulb2N60AdST7ke&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/720974585407854340?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_4gzKT8pAYI8kuEP5&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Flat aconchegante bem localizado com garagem</t>
+          <t>Casa de campo com piscina</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Curitiba Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>600</v>
       </c>
       <c r="E54" t="n">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Jaguariaíva</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/761099166890775777?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_OE%2BE49S3e0PSbvYA&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1111604228738060216?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133375_h4ArK5NU8wlMNeul&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Casa de Campo com Piscina em Piraquara</t>
+          <t>Apartamento Moderno AZ2027</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Piraquara, Brasil</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Piraquara Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>207</v>
       </c>
       <c r="E55" t="n">
-        <v>1320</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/49793555?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133371_Cw%2FFYWiI%2Bh4SXsV7&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/52104274?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133375_88Pf8vhDQTzV2dJZ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CHALÉ ALTO PADRÃO  São Luiz do Purunã 2 quartos</t>
+          <t>Lareira Forno à Lenha  WiFi no Campo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hotel-fazenda em Balsa Nova, Brasil</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Balsa Nova Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>364</v>
       </c>
       <c r="E56" t="n">
-        <v>817</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>São José dos Pinhais</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1082643511933100804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133371_CZt1zGyoYusXBwDW&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1105678903819759771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_3%2Byd%2BfWnz7G6hsv1&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Casa em Maringá  com piscina</t>
+          <t>Matinhos vista mar cchurrasqueira e itens praia</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>183</v>
       </c>
       <c r="E57" t="n">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Matinhos</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/720974585407854340?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_4gzKT8pAYI8kuEP5&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713133375_lf%2FkBJt71TOlkUyw&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Casa de campo com piscina</t>
+          <t>Estudio Completo no Batel  HSB1262</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Jaguariaíva, Brasil</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Jaguariaíva Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>314</v>
       </c>
       <c r="E58" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1111604228738060216?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133375_h4ArK5NU8wlMNeul&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1063090915162869547?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_NoHN3JGZO%2FlOZbeH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Apartamento Moderno AZ2027</t>
+          <t>Loft lindo clean bem central com ar e garagem</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>111</v>
       </c>
       <c r="E59" t="n">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Cascavel</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/52104274?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133375_88Pf8vhDQTzV2dJZ&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/49143796?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_MJSkOrgBI8jO5l78&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lareira Forno à Lenha  WiFi no Campo</t>
+          <t>Um Paraíso entre a Floresta e o Mar  Praia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em São José dos Pinhais, Brasil</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>São José dos Pinhais Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>504</v>
       </c>
       <c r="E60" t="n">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
         <v>6</v>
       </c>
-      <c r="G60" t="n">
-        <v>3</v>
-      </c>
       <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Vila da Gloria</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1105678903819759771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_3%2Byd%2BfWnz7G6hsv1&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/30346078?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_A%2FUcn74HM17jv%2BTW&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Matinhos vista mar cchurrasqueira e itens praia</t>
+          <t>Apartamento com visual moderno e arcondicionado</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Matinhos, Brasil</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Matinhos Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>143</v>
       </c>
       <c r="E61" t="n">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Jardim Ipanema</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713133375_lf%2FkBJt71TOlkUyw&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/901314577350733782?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_qjw6nFe2AYhN%2Fvm4&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Estudio Completo no Batel  HSB1262</t>
+          <t>Refúgio Paraíso da Serra</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Curitiba Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>525</v>
       </c>
       <c r="E62" t="n">
-        <v>314</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Campo Alegre</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1063090915162869547?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_NoHN3JGZO%2FlOZbeH&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/949122648724718554?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_JemXdWjQOmNAaCVM&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Loft lindo clean bem central com ar e garagem</t>
+          <t>Casa de campo com vista de Castro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Cascavel, Brasil</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Cascavel Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>385</v>
       </c>
       <c r="E63" t="n">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/550829830660386060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_%2BnG5CtCLLeCePnA%2B&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1036396597827869576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133378_Pbnod9xNaDj%2Fj%2BDg&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ap Novo 7 Andar Janelas Direto Mar perto Beto Carr</t>
+          <t>Casa individual até 06 pessoas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Itajubá, Brasil</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Itajubá Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>69</v>
       </c>
       <c r="E64" t="n">
-        <v>328</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Toledo</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/49143796?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_MJSkOrgBI8jO5l78&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/16822662?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133378_vY683gyV%2FWWjXu89&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Um Paraíso entre a Floresta e o Mar  Praia</t>
+          <t>Conforto e Comodidade em Santa Felicidade</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Vila da Gloria, Brasil</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Vila da Gloria Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>390</v>
       </c>
       <c r="E65" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/30346078?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_A%2FUcn74HM17jv%2BTW&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/52221462?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_PjIFpUAkPF85qY0C&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apartamento com visual moderno e arcondicionado</t>
+          <t>Rancho na Beira Rio para Relaxar com a Família</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Jardim Ipanema, Brasil</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Jardim Ipanema Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>200</v>
       </c>
       <c r="E66" t="n">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2881,295 +3204,335 @@
       <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Rosana</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> São Paulo</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/50320917?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133375_LbyGkus%2F10dBro8u&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1104595681502449386?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-27&amp;check_out=2024-05-02&amp;source_impression_id=p3_1713133379_LjJ8yePty0Swvi3K&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Acolhedor completo Cond Clube GreenCenter 22and</t>
+          <t>Studio 04  Próx a UEM com garagem AC e wifi</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Espaço inteiro: condomínio em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>134</v>
       </c>
       <c r="E67" t="n">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/901314577350733782?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_qjw6nFe2AYhN%2Fvm4&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/43457804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133379_aW7sgg1P0bv9liAt&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Refúgio Paraíso da Serra</t>
+          <t>Conforto  Sofisticação no centro de LondrinaPR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Campo Alegre, Brasil</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Campo Alegre Santa Catarina Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>182</v>
       </c>
       <c r="E68" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/949122648724718554?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_JemXdWjQOmNAaCVM&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/52986812?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133379_%2FmhiMQZatOp%2FbwOj&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Casa de campo com vista de Castro</t>
+          <t>Apartamento super aconchegante Região Nobre de Londrina</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Castro, Brasil</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Castro Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>204</v>
       </c>
       <c r="E69" t="n">
-        <v>385</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Gleba Fazenda Palhano</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1036396597827869576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133378_Pbnod9xNaDj%2Fj%2BDg&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/50268607?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133379_AvUcslKFmvPcAWPD&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Casa individual até 06 pessoas</t>
+          <t>Apartamento lindo e aconchegante no coração de Cascavel próximo de tudo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Toledo, Brasil</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Toledo Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>150</v>
       </c>
       <c r="E70" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/16822662?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133378_vY683gyV%2FWWjXu89&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/573221082228757147?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133382_5me8v8hmgi%2B6j55I&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Conforto e Comodidade em Santa Felicidade</t>
+          <t>Acomodação completa e agradável</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Curitiba Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>80</v>
       </c>
       <c r="E71" t="n">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Boqueirão</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/52221462?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_PjIFpUAkPF85qY0C&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1055318850749857213?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_G7TqcewLK4Gcg42a&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rancho na Beira Rio para Relaxar com a Família</t>
+          <t>Chalé da Quinta</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de campo em Rosana, Brasil</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Rosana São Paulo Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>216</v>
       </c>
       <c r="E72" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>São Francisco do Sul</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/699045280238096090?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133379_HEv8425ljfwNtc5y&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/685337400786476532?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_RhP9pWhmY6UU3qt9&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rancho Preto Coração do Rio Vermelho</t>
+          <t>Charmoso Chalé com hidro Café da manhã incluso</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>O lugar inteiro em São Bento do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>São Bento do Sul Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>510</v>
       </c>
       <c r="E73" t="n">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Campo Alegre</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1104595681502449386?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-27&amp;check_out=2024-05-02&amp;source_impression_id=p3_1713133379_LjJ8yePty0Swvi3K&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1087574140202126869?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_zMNN2CcTE3W6PJfV&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Studio 04  Próx a UEM com garagem AC e wifi</t>
+          <t>Apto NOVO completoGleba Palhano</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>167</v>
       </c>
       <c r="E74" t="n">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3177,221 +3540,251 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/43457804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133379_aW7sgg1P0bv9liAt&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/623262994809361103?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133382_47AUkfwpRbqxrP1U&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Conforto  Sofisticação no centro de LondrinaPR</t>
+          <t>ESTÚDIO COMPLETO  CENTRO DE LONDRINA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>120</v>
       </c>
       <c r="E75" t="n">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/52986812?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133379_%2FmhiMQZatOp%2FbwOj&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1060235003234042893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713133382_OaZHqeh%2FTlESa1LZ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Apartamento super aconchegante Região Nobre de Londrina</t>
+          <t>Aconchego é ótima localização</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Gleba Fazenda Palhano, Brasil</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Gleba Fazenda Palhano Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>217</v>
       </c>
       <c r="E76" t="n">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>2</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/50268607?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133379_AvUcslKFmvPcAWPD&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/53805864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133382_Clf6ipbjPwluHqoV&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Apartamento lindo e aconchegante no coração de Cascavel próximo de tudo</t>
+          <t>Chalé Magnólia com Jacuzzi e vista para o lago</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
+          <t>cabana</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>500</v>
       </c>
       <c r="E77" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Rio dos Cedros</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/573221082228757147?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133382_5me8v8hmgi%2B6j55I&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/659412938411923831?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_amAkVYCg5Qh2zUr9&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Acomodação completa e agradável</t>
+          <t>Beira Mar Piscina Academia WiFi Estacionamento</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de hóspedes em Boqueirão, Brasil</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Boqueirão Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>350</v>
       </c>
       <c r="E78" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="n">
         <v>4</v>
       </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Matinhos</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1055318850749857213?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_G7TqcewLK4Gcg42a&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1131192598071150208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133386_hl7s5AVgqUbErb%2Bn&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chalé da Quinta</t>
+          <t>Apartamento Duplex Rooftop  SH1508</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em São Francisco do Sul, Brasil</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>São Francisco do Sul Santa Catarina Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>225</v>
       </c>
       <c r="E79" t="n">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/685337400786476532?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_RhP9pWhmY6UU3qt9&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/48186964?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133386_XIKU7Lryp%2Fxti3%2Bg&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Charmoso Chalé com hidro Café da manhã incluso</t>
+          <t>Studio com Cama de Casal  ALL1221</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa de hóspedes em Campo Alegre, Brasil</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Campo Alegre Santa Catarina Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>226</v>
       </c>
       <c r="E80" t="n">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3399,36 +3792,41 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="n">
-        <v>2</v>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1087574140202126869?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_zMNN2CcTE3W6PJfV&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/577549434725587999?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133386_WiNzUVs3M35QYe9M&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Apto NOVO completoGleba Palhano</t>
+          <t xml:space="preserve">CHALÉ COM HIDRO  FAZENDA ENCANTO DO VALE </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Londrina Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>474</v>
       </c>
       <c r="E81" t="n">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3436,110 +3834,125 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Rio Negrinho</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/623262994809361103?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133382_47AUkfwpRbqxrP1U&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/577641182041994576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_0Yj%2Fe5Ltr1mbgztt&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ESTÚDIO COMPLETO  CENTRO DE LONDRINA</t>
+          <t>casa grande fica próximo ao centro de arapongas</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>190</v>
       </c>
       <c r="E82" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>2</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Arapongas</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1060235003234042893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713133382_OaZHqeh%2FTlESa1LZ&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/652841762294255893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133386_KsJt8kZIXJoGKTFq&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aconchego é ótima localização</t>
+          <t>Apartamento moderno e aconchegante no centro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>120</v>
       </c>
       <c r="E83" t="n">
-        <v>217</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/53805864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133382_Clf6ipbjPwluHqoV&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/890602063781994456?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_bz9QkgslKLI70vqK&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chalé Magnólia com Jacuzzi e vista para o lago</t>
+          <t>Chalé do Recanto Kuglin ao lado do lago</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Espaço inteiro: cabana em Rio dos Cedros, Brasil</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Rio dos Cedros Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>250</v>
       </c>
       <c r="E84" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3547,110 +3960,125 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Pomerode</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/659412938411923831?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_amAkVYCg5Qh2zUr9&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1033505777247319330?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_xVm8jrdZt2IuMm1Z&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Beira Mar Piscina Academia WiFi Estacionamento</t>
+          <t>Apartamento 02 novo piso terreo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Matinhos, Brasil</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Matinhos Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>85</v>
       </c>
       <c r="E85" t="n">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Imbituva</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1131192598071150208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133386_hl7s5AVgqUbErb%2Bn&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133386_Wp0fEAhpUdFRH3Rt&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Apartamento Duplex Rooftop  SH1508</t>
+          <t>casa de lazer</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>148</v>
       </c>
       <c r="E86" t="n">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/48186964?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133386_XIKU7Lryp%2Fxti3%2Bg&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1051537509637818601?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_V%2BVTapmMVbzLz1mJ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Studio com Cama de Casal  ALL1221</t>
+          <t>Studio versátil 1 cama casal</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>131</v>
       </c>
       <c r="E87" t="n">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3658,36 +4086,41 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/577549434725587999?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133386_WiNzUVs3M35QYe9M&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_29s5UycyzY8KnNOM&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHALÉ COM HIDRO  FAZENDA ENCANTO DO VALE </t>
+          <t>casa de lazer</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Espaço inteiro: chalé em Rio Negrinho, Brasil</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Rio Negrinho Santa Catarina Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>148</v>
       </c>
       <c r="E88" t="n">
-        <v>474</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3695,489 +4128,183 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/577641182041994576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_0Yj%2Fe5Ltr1mbgztt&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/53669097?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133389_eCywe0CcZ9VGUPjE&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>casa grande fica próximo ao centro de arapongas</t>
+          <t>Espaço inteiro Casa 2 Pinheiros</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Arapongas, Brasil</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Arapongas Paraná Brasil</t>
-        </is>
+          <t>casa</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>170</v>
       </c>
       <c r="E89" t="n">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Pomerode</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/652841762294255893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133386_KsJt8kZIXJoGKTFq&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/48660624?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133389_6P72%2BbZ2qES%2FywAz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Apartamento moderno e aconchegante no centro</t>
+          <t>Chalé Cupido  RefúgiodosanjosChalés</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
+          <t>chalé</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>544</v>
       </c>
       <c r="E90" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Rio dos Cedros</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/890602063781994456?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_bz9QkgslKLI70vqK&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/938679570482994372?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133389_WrhJ%2F14yNgbI4kys&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chalé do Recanto Kuglin ao lado do lago</t>
+          <t>Aconchego Familiar</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Espaço inteiro: casa em Pomerode, Brasil</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Pomerode Santa Catarina Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>149</v>
       </c>
       <c r="E91" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraná</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.airbnb.com.br/rooms/1033505777247319330?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_xVm8jrdZt2IuMm1Z&amp;previous_page_section_name=1000</t>
+          <t>https://www.airbnb.com.br/rooms/902753661350280955?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_J8fkofw1nWtLELpB&amp;previous_page_section_name=1000</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Apartamento 02 novo piso terreo</t>
+          <t>Loft SofisticadoCentralVaga academia completo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Espaço inteiro: apartamento em Imbituva, Brasil</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Imbituva Paraná Brasil</t>
-        </is>
+          <t>apartamento</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>169</v>
       </c>
       <c r="E92" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133386_oQXRsVXo%2Fhywpgo9&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Studio Aconchegante Selfie  ALL1310</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Quarto em apart-hotel em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>221</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133386_Wp0fEAhpUdFRH3Rt&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>casa de lazer</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: casa em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>148</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/1051537509637818601?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_V%2BVTapmMVbzLz1mJ&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Studio versátil 1 cama casal</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: apartamento em Curitiba, Brasil</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Curitiba Paraná Brasil</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>131</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_29s5UycyzY8KnNOM&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>casa de lazer</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: casa em Maringá, Brasil</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Maringá Paraná Brasil</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>148</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133389_BCP%2FT9xcO7lY%2BfAk&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Studio Aconchegante Selfie  ALL1310</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Quarto em apart-hotel em Centro, Brasil</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Centro Paraná Brasil</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>221</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/53669097?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133389_eCywe0CcZ9VGUPjE&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Espaço inteiro Casa 2 Pinheiros</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: casa de campo em Pomerode, Brasil</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Pomerode Santa Catarina Brasil</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>170</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10</v>
-      </c>
-      <c r="G98" t="n">
-        <v>4</v>
-      </c>
-      <c r="H98" t="n">
-        <v>4</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/48660624?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133389_6P72%2BbZ2qES%2FywAz&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Chalé Cupido  RefúgiodosanjosChalés</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: chalé em Rio dos Cedros, Brasil</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Rio dos Cedros Santa Catarina Brasil</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>544</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/938679570482994372?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133389_WrhJ%2F14yNgbI4kys&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Aconchego Familiar</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: apartamento em Londrina, Brasil</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Londrina Paraná Brasil</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>149</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com.br/rooms/902753661350280955?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_J8fkofw1nWtLELpB&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Loft SofisticadoCentralVaga academia completo</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Espaço inteiro: apartamento em Joinville, Brasil</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Joinville Santa Catarina Brasil</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>169</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Joinville</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Catarina</t>
+        </is>
       </c>
     </row>
   </sheetData>
